--- a/PCAD/Перечень элементов Acidifier v4.xlsx
+++ b/PCAD/Перечень элементов Acidifier v4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="137">
   <si>
     <t>RefDes</t>
   </si>
@@ -410,6 +410,21 @@
   </si>
   <si>
     <t>XS_WATER1</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Развернуть на 180</t>
+  </si>
+  <si>
+    <t>100 Ом</t>
+  </si>
+  <si>
+    <t>R_0805 510 Ом</t>
+  </si>
+  <si>
+    <t>0 Ом</t>
   </si>
 </sst>
 </file>
@@ -912,9 +927,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="17" fillId="16" borderId="0" xfId="25" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="17" fillId="17" borderId="0" xfId="26" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -960,7 +977,10 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -984,13 +1004,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D78" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D78"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E78" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:E78"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="RefDes" dataDxfId="3"/>
     <tableColumn id="2" name="ComponentName" dataDxfId="2"/>
     <tableColumn id="3" name="PatternName" dataDxfId="1"/>
     <tableColumn id="4" name="Value"/>
+    <tableColumn id="5" name="Примечание" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1283,7 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1294,9 +1318,10 @@
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,8 +1334,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1323,8 +1351,9 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1337,8 +1366,9 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1351,8 +1381,9 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1365,8 +1396,9 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1379,8 +1411,9 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1393,8 +1426,9 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1407,8 +1441,9 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1421,8 +1456,9 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1435,8 +1471,9 @@
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1446,11 +1483,14 @@
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1460,11 +1500,14 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1477,8 +1520,9 @@
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1491,8 +1535,9 @@
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1505,8 +1550,9 @@
       <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1519,8 +1565,9 @@
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1533,8 +1580,9 @@
       <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1547,8 +1595,9 @@
       <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1561,8 +1610,9 @@
       <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1572,8 +1622,9 @@
       <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1586,8 +1637,9 @@
       <c r="D21" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1600,8 +1652,9 @@
       <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1611,8 +1664,9 @@
       <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1625,8 +1679,9 @@
       <c r="D24" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -1639,8 +1694,9 @@
       <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -1653,8 +1709,9 @@
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1667,8 +1724,9 @@
       <c r="D27" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -1678,8 +1736,9 @@
       <c r="C28" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -1689,8 +1748,9 @@
       <c r="C29" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -1700,8 +1760,9 @@
       <c r="C30" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
@@ -1711,8 +1772,9 @@
       <c r="C31" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -1722,8 +1784,9 @@
       <c r="C32" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -1736,8 +1799,9 @@
       <c r="D33" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
@@ -1750,8 +1814,9 @@
       <c r="D34" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -1761,11 +1826,14 @@
       <c r="C35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -1775,11 +1843,14 @@
       <c r="C36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -1792,8 +1863,9 @@
       <c r="D37" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
@@ -1806,8 +1878,9 @@
       <c r="D38" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -1820,8 +1893,9 @@
       <c r="D39" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -1834,8 +1908,9 @@
       <c r="D40" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -1848,8 +1923,9 @@
       <c r="D41" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -1862,8 +1938,9 @@
       <c r="D42" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -1876,8 +1953,9 @@
       <c r="D43" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
@@ -1890,8 +1968,9 @@
       <c r="D44" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -1904,8 +1983,9 @@
       <c r="D45" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
@@ -1918,8 +1998,9 @@
       <c r="D46" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
@@ -1932,8 +2013,9 @@
       <c r="D47" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
@@ -1946,8 +2028,9 @@
       <c r="D48" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
@@ -1960,8 +2043,9 @@
       <c r="D49" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
@@ -1974,8 +2058,9 @@
       <c r="D50" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
@@ -1988,8 +2073,9 @@
       <c r="D51" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>95</v>
       </c>
@@ -2002,8 +2088,9 @@
       <c r="D52" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>96</v>
       </c>
@@ -2016,8 +2103,9 @@
       <c r="D53" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
@@ -2030,8 +2118,9 @@
       <c r="D54" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>98</v>
       </c>
@@ -2041,11 +2130,14 @@
       <c r="C55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>99</v>
       </c>
@@ -2058,8 +2150,9 @@
       <c r="D56" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
@@ -2072,8 +2165,9 @@
       <c r="D57" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>103</v>
       </c>
@@ -2083,8 +2177,11 @@
       <c r="C58" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>106</v>
       </c>
@@ -2094,8 +2191,11 @@
       <c r="C59" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>107</v>
       </c>
@@ -2105,8 +2205,11 @@
       <c r="C60" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>108</v>
       </c>
@@ -2116,8 +2219,11 @@
       <c r="C61" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>109</v>
       </c>
@@ -2130,8 +2236,9 @@
       <c r="D62" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>112</v>
       </c>
@@ -2144,8 +2251,9 @@
       <c r="D63" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>113</v>
       </c>
@@ -2155,8 +2263,9 @@
       <c r="C64" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>116</v>
       </c>
@@ -2166,8 +2275,9 @@
       <c r="C65" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>117</v>
       </c>
@@ -2177,8 +2287,9 @@
       <c r="C66" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>119</v>
       </c>
@@ -2188,8 +2299,9 @@
       <c r="C67" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>121</v>
       </c>
@@ -2199,8 +2311,9 @@
       <c r="C68" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>122</v>
       </c>
@@ -2210,8 +2323,9 @@
       <c r="C69" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
@@ -2221,8 +2335,9 @@
       <c r="C70" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>124</v>
       </c>
@@ -2232,8 +2347,9 @@
       <c r="C71" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>125</v>
       </c>
@@ -2243,8 +2359,9 @@
       <c r="C72" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>126</v>
       </c>
@@ -2254,8 +2371,9 @@
       <c r="C73" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>127</v>
       </c>
@@ -2265,8 +2383,9 @@
       <c r="C74" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>128</v>
       </c>
@@ -2276,8 +2395,9 @@
       <c r="C75" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>129</v>
       </c>
@@ -2287,8 +2407,9 @@
       <c r="C76" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>130</v>
       </c>
@@ -2298,8 +2419,9 @@
       <c r="C77" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>131</v>
       </c>
@@ -2309,11 +2431,14 @@
       <c r="C78" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="E78" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>